--- a/medicine/Sexualité et sexologie/CFNM/CFNM.xlsx
+++ b/medicine/Sexualité et sexologie/CFNM/CFNM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">CFNM, sigle anglais de « Clothed female, naked male » (Femme vêtue, homme nu), qualifie les situations ou pratiques sexuelles qui mettent en présence un ou plusieurs hommes nus avec une ou plusieurs femmes habillées. 
 Il décrit quelquefois un fantasme sexuel, masculin ou féminin, consistant en un scénario exhibitionniste ou fétichiste. 
